--- a/matrixCompany3.xlsx
+++ b/matrixCompany3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="976" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OnHoliday" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
   <si>
     <t xml:space="preserve">Regular Approver</t>
   </si>
@@ -245,12 +245,48 @@
     <t xml:space="preserve">approver43@company3.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Single Approver 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover1@company3.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover2@company3.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover3@company3.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover4@company3.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover5@company3.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover6@company3.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Client</t>
   </si>
   <si>
-    <t xml:space="preserve">Descriptor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Client Name</t>
   </si>
   <si>
@@ -260,80 +296,70 @@
     <t xml:space="preserve">Role Text</t>
   </si>
   <si>
+    <t xml:space="preserve">COM</t>
+  </si>
+  <si>
     <t xml:space="preserve">COM 003</t>
   </si>
   <si>
     <t xml:space="preserve">Company 3 Single 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Approver 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Section 1 Roles</t>
   </si>
   <si>
+    <t xml:space="preserve">CPP</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPP 003</t>
   </si>
   <si>
     <t xml:space="preserve">Company 3 Single 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Approver 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Section 2 Roles</t>
   </si>
   <si>
+    <t xml:space="preserve">FBD</t>
+  </si>
+  <si>
     <t xml:space="preserve">FBD 003</t>
   </si>
   <si>
     <t xml:space="preserve">Company 3 Single 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Approver 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Section 3 Roles</t>
   </si>
   <si>
+    <t xml:space="preserve">XXX Company 3 Name 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">XXX 003</t>
   </si>
   <si>
-    <t xml:space="preserve">Company 3 Name 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Company 3 Single 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Approver 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paste Job Title Here</t>
   </si>
   <si>
-    <t xml:space="preserve">Company 3 Name 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Approver 5</t>
+    <t xml:space="preserve">XXX Company 3 Name 5</t>
   </si>
   <si>
     <t xml:space="preserve">Paste Roles Here</t>
   </si>
   <si>
-    <t xml:space="preserve">Company 3 Name 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Approver 6</t>
+    <t xml:space="preserve">XXX Company 3 Name 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -415,7 +441,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -442,8 +468,12 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,15 +514,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,7 +527,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
@@ -509,6 +535,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -588,9 +615,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -640,7 +667,7 @@
     <tabColor rgb="FF558ED5"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K65536"/>
+  <dimension ref="A1:K12757"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -652,14 +679,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="4" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="4" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="42.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1090,7 +1117,6 @@
     <row r="12757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.3"/>
@@ -1108,119 +1134,164 @@
     <tabColor rgb="FF000000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="65.4493927125506"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="53.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.9838056680162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.7732793522267"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="0" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" display="approver43@company3.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1239,127 +1310,136 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1578947368421"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1174089068826"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>79</v>
+        <v>91</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
